--- a/Classifiers_Results.xlsx
+++ b/Classifiers_Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Classifier</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Gradient Boost</t>
+  </si>
+  <si>
+    <t>Classifiers average performance scores</t>
+  </si>
+  <si>
+    <t>Project: Identifying persons of interest in the Enron Fraud Case</t>
+  </si>
+  <si>
+    <t>By: Rakesh Dhote (rdhote@ryerson.ca)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final results </t>
   </si>
 </sst>
 </file>
@@ -92,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -141,32 +159,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -464,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,149 +479,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.52380952380952295</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.56666666666666599</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.53703703703703698</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.84893267651888304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6.6666666666666596E-2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.82553366174055798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.78333333333333299</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.64047619047618998</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.89573070607553296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.27777777777777701</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.149999999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.19047619047618999</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.82553366174055798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.27777777777777701</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.21666666666666601</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.233333333333333</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.76683087027914598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6.6666666666666596E-2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.84893267651888304</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>0.55555555555555503</v>
+        <v>0.52380952380952295</v>
       </c>
       <c r="C8" s="3">
-        <v>0.43333333333333302</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="D8" s="3">
-        <v>0.48148148148148101</v>
+        <v>0.53703703703703698</v>
       </c>
       <c r="E8" s="3">
         <v>0.84893267651888304</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.82553366174055798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.64047619047618998</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.89573070607553296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.149999999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.19047619047618999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.82553366174055798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.21666666666666601</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.76683087027914598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.84893267651888304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.48148148148148101</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.84893267651888304</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B7">
+  <mergeCells count="1">
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B8:B13">
     <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7">
+  <conditionalFormatting sqref="C8:C13">
     <cfRule type="top10" dxfId="1" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D7">
+  <conditionalFormatting sqref="D8:D13">
     <cfRule type="top10" dxfId="0" priority="8" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
